--- a/infinite/Excel/Music_音乐表.xlsx
+++ b/infinite/Excel/Music_音乐表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -56,13 +56,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,14 +71,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,9 +105,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,12 +432,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="51"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="51"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="54"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="54"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="true" ht="21" r="1">
       <c r="A1" s="1" t="str">
         <v>int</v>
       </c>
@@ -465,7 +465,7 @@
         <v>String</v>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="true" ht="21" r="2">
       <c r="A2" s="1" t="str">
         <v>id</v>
       </c>
@@ -476,7 +476,7 @@
         <v>Annotation</v>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="true" ht="21" r="3">
       <c r="A3" s="1" t="str">
         <v>唯一ID</v>
       </c>
@@ -487,218 +487,219 @@
         <v>注释</v>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="true" ht="21" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row customHeight="true" ht="19" r="5">
-      <c r="A5" s="2">
+    <row customHeight="true" ht="21" r="5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>118698</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <v>STAY</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="6">
+      <c r="B5" s="1">
+        <v>268224</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>开放世界</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="6">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>118699</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <v>bad guy</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="7">
+      <c r="B6" s="1">
+        <v>118698</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>STAY</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="7">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
+        <v>118699</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <v>bad guy</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="8">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
         <v>117222</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C8" s="2" t="str">
         <v>我会活下去</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>118697</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <v>Let Me Love You</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="9">
+    <row customHeight="true" ht="21" r="9">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
-        <v>118700</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <v>Running up That Hill</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="10">
+      <c r="B9" s="1">
+        <v>118697</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <v>Let Me Love You</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="10">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
+        <v>118700</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <v>Running up That Hill</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="11">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
         <v>118701</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C11" s="1" t="str">
         <v>Love To Hate Me</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="11">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
-        <v>118702</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <v>TOMBOY</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="12">
+    <row customHeight="true" ht="21" r="12">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
-        <v>118703</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <v>Shut Down</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="13">
+      <c r="B12" s="1">
+        <v>118702</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <v>TOMBOY</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="13">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
+        <v>118703</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <v>Shut Down</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="14">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
         <v>118704</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C14" s="1" t="str">
         <v>Celestial</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>118712</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <v>As It Was</v>
-      </c>
-    </row>
-    <row r="15">
+    <row customHeight="true" ht="21" r="15">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
-        <v>118706</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <v>Good Morning</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" s="2">
+        <v>118712</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <v>As It Was</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="16">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
+        <v>118706</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <v>Good Morning</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="17">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
         <v>118707</v>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C17" s="1" t="str">
         <v>Alone</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3">
-        <v>118709</v>
-      </c>
-      <c r="C17" s="3" t="str">
-        <v>Chanderiler</v>
-      </c>
-    </row>
-    <row r="18">
+    <row customHeight="true" ht="21" r="18">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
-        <v>118711</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <v>Don't Wanna Know</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18" s="1">
+        <v>118709</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <v>Chanderiler</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="19">
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
+        <v>118711</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <v>Don't Wanna Know</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="20">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
         <v>118716</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C20" s="1" t="str">
         <v>Mood</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="20">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2">
-        <v>117220</v>
-      </c>
-      <c r="C20" s="2" t="str">
-        <v>金轮</v>
-      </c>
-    </row>
-    <row r="21">
+    <row customHeight="true" ht="21" r="21">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="3">
-        <v>128884</v>
-      </c>
-      <c r="C21" s="3" t="str">
-        <v>不知道叫啥</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21" s="2">
+        <v>117220</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <v>金轮</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="22">
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
+        <v>128884</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <v>不知道叫啥</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="23">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
         <v>128888</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C23" s="1" t="str">
         <v>也不知道叫啥</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/infinite/Excel/Music_音乐表.xlsx
+++ b/infinite/Excel/Music_音乐表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -51,7 +51,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,7 +85,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -97,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -105,6 +133,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,9 +467,9 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="54"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="54"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
@@ -464,6 +498,9 @@
       <c r="C1" s="1" t="str">
         <v>String</v>
       </c>
+      <c r="D1" s="1" t="str">
+        <v>String</v>
+      </c>
     </row>
     <row customHeight="true" ht="21" r="2">
       <c r="A2" s="1" t="str">
@@ -475,6 +512,9 @@
       <c r="C2" s="1" t="str">
         <v>Annotation</v>
       </c>
+      <c r="D2" s="1" t="str">
+        <v>Desc</v>
+      </c>
     </row>
     <row customHeight="true" ht="21" r="3">
       <c r="A3" s="1" t="str">
@@ -486,11 +526,17 @@
       <c r="C3" s="1" t="str">
         <v>注释</v>
       </c>
+      <c r="D3" s="1" t="str">
+        <v>注释</v>
+      </c>
     </row>
     <row customHeight="true" ht="21" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="4" t="str">
+        <v>Language</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="5">
       <c r="A5" s="1">
@@ -499,29 +545,38 @@
       <c r="B5" s="1">
         <v>268224</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
+        <v>Text_Music_1</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <v>开放世界</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>118698</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
+        <v>Text_Music_2</v>
+      </c>
+      <c r="D6" s="1" t="str">
         <v>STAY</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>118699</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
+        <v>Text_Music_3</v>
+      </c>
+      <c r="D7" s="1" t="str">
         <v>bad guy</v>
       </c>
     </row>
@@ -529,32 +584,41 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>117222</v>
       </c>
       <c r="C8" s="2" t="str">
+        <v>Text_Music_4</v>
+      </c>
+      <c r="D8" s="3" t="str">
         <v>我会活下去</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>118697</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
+        <v>Text_Music_5</v>
+      </c>
+      <c r="D9" s="1" t="str">
         <v>Let Me Love You</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>118700</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="2" t="str">
+        <v>Text_Music_6</v>
+      </c>
+      <c r="D10" s="1" t="str">
         <v>Running up That Hill</v>
       </c>
     </row>
@@ -565,29 +629,38 @@
       <c r="B11" s="1">
         <v>118701</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="2" t="str">
+        <v>Text_Music_7</v>
+      </c>
+      <c r="D11" s="1" t="str">
         <v>Love To Hate Me</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>118702</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="2" t="str">
+        <v>Text_Music_8</v>
+      </c>
+      <c r="D12" s="1" t="str">
         <v>TOMBOY</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="1">
         <v>118703</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="2" t="str">
+        <v>Text_Music_9</v>
+      </c>
+      <c r="D13" s="1" t="str">
         <v>Shut Down</v>
       </c>
     </row>
@@ -598,29 +671,38 @@
       <c r="B14" s="1">
         <v>118704</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="2" t="str">
+        <v>Text_Music_10</v>
+      </c>
+      <c r="D14" s="1" t="str">
         <v>Celestial</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>118712</v>
       </c>
       <c r="C15" s="2" t="str">
+        <v>Text_Music_11</v>
+      </c>
+      <c r="D15" s="3" t="str">
         <v>As It Was</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="1">
         <v>118706</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C16" s="2" t="str">
+        <v>Text_Music_12</v>
+      </c>
+      <c r="D16" s="1" t="str">
         <v>Good Morning</v>
       </c>
     </row>
@@ -631,29 +713,38 @@
       <c r="B17" s="1">
         <v>118707</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="2" t="str">
+        <v>Text_Music_13</v>
+      </c>
+      <c r="D17" s="1" t="str">
         <v>Alone</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="1">
         <v>118709</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" s="2" t="str">
+        <v>Text_Music_14</v>
+      </c>
+      <c r="D18" s="1" t="str">
         <v>Chanderiler</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="1">
         <v>118711</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C19" s="2" t="str">
+        <v>Text_Music_15</v>
+      </c>
+      <c r="D19" s="1" t="str">
         <v>Don't Wanna Know</v>
       </c>
     </row>
@@ -664,29 +755,38 @@
       <c r="B20" s="1">
         <v>118716</v>
       </c>
-      <c r="C20" s="1" t="str">
+      <c r="C20" s="2" t="str">
+        <v>Text_Music_16</v>
+      </c>
+      <c r="D20" s="1" t="str">
         <v>Mood</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>117220</v>
       </c>
       <c r="C21" s="2" t="str">
+        <v>Text_Music_17</v>
+      </c>
+      <c r="D21" s="3" t="str">
         <v>金轮</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="1">
         <v>128884</v>
       </c>
-      <c r="C22" s="1" t="str">
+      <c r="C22" s="2" t="str">
+        <v>Text_Music_18</v>
+      </c>
+      <c r="D22" s="1" t="str">
         <v>不知道叫啥</v>
       </c>
     </row>
@@ -697,7 +797,10 @@
       <c r="B23" s="1">
         <v>128888</v>
       </c>
-      <c r="C23" s="1" t="str">
+      <c r="C23" s="2" t="str">
+        <v>Text_Music_19</v>
+      </c>
+      <c r="D23" s="1" t="str">
         <v>也不知道叫啥</v>
       </c>
     </row>
